--- a/racing_chart.xlsx
+++ b/racing_chart.xlsx
@@ -376,10 +376,10 @@
     <t>TYNAN</t>
   </si>
   <si>
-    <t>G JONES</t>
+    <t>VINCENT</t>
   </si>
   <si>
-    <t>VINCENT</t>
+    <t>G JONES</t>
   </si>
   <si>
     <t>EPROM</t>
@@ -526,7 +526,7 @@
     <t>RICKYXSAN</t>
   </si>
   <si>
-    <t>HUDSON MOHAWKE</t>
+    <t>HUDSON MOHAWKEE</t>
   </si>
   <si>
     <t>HEX COUGAR</t>
@@ -7868,280 +7868,280 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="O24">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="P24">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="Q24">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="R24">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="S24">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="T24">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="U24">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="V24">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="W24">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="X24">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="Y24">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="Z24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="AA24">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="AB24">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="AC24">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="AD24">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="AE24">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="AF24">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="AG24">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="AH24">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AI24">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="AJ24">
-        <v>359</v>
+        <v>445</v>
       </c>
       <c r="AK24">
-        <v>361</v>
+        <v>520</v>
       </c>
       <c r="AL24">
-        <v>409</v>
+        <v>584</v>
       </c>
       <c r="AM24">
-        <v>419</v>
+        <v>951</v>
       </c>
       <c r="AN24">
-        <v>424</v>
+        <v>1006</v>
       </c>
       <c r="AO24">
-        <v>490</v>
+        <v>1258</v>
       </c>
       <c r="AP24">
-        <v>578</v>
+        <v>1266</v>
       </c>
       <c r="AQ24">
-        <v>601</v>
+        <v>1271</v>
       </c>
       <c r="AR24">
-        <v>614</v>
+        <v>1402</v>
       </c>
       <c r="AS24">
-        <v>637</v>
+        <v>1403</v>
       </c>
       <c r="AT24">
-        <v>641</v>
+        <v>1406</v>
       </c>
       <c r="AU24">
-        <v>770</v>
+        <v>1410</v>
       </c>
       <c r="AV24">
-        <v>989</v>
+        <v>1774</v>
       </c>
       <c r="AW24">
-        <v>1084</v>
+        <v>1774</v>
       </c>
       <c r="AX24">
-        <v>1148</v>
+        <v>1791</v>
       </c>
       <c r="AY24">
-        <v>1174</v>
+        <v>1863</v>
       </c>
       <c r="AZ24">
-        <v>1174</v>
+        <v>1879</v>
       </c>
       <c r="BA24">
-        <v>1225</v>
+        <v>2016</v>
       </c>
       <c r="BB24">
-        <v>1333</v>
+        <v>2232</v>
       </c>
       <c r="BC24">
-        <v>1397</v>
+        <v>2369</v>
       </c>
       <c r="BD24">
-        <v>1397</v>
+        <v>2371</v>
       </c>
       <c r="BE24">
-        <v>1476</v>
+        <v>2448</v>
       </c>
       <c r="BF24">
-        <v>1476</v>
+        <v>2739</v>
       </c>
       <c r="BG24">
-        <v>1773</v>
+        <v>3251</v>
       </c>
       <c r="BH24">
-        <v>1774</v>
+        <v>3252</v>
       </c>
       <c r="BI24">
-        <v>1884</v>
+        <v>3377</v>
       </c>
       <c r="BJ24">
-        <v>1945</v>
+        <v>3595</v>
       </c>
       <c r="BK24">
-        <v>1945</v>
+        <v>3956</v>
       </c>
       <c r="BL24">
-        <v>2162</v>
+        <v>4102</v>
       </c>
       <c r="BM24">
-        <v>2162</v>
+        <v>4103</v>
       </c>
       <c r="BN24">
-        <v>2212</v>
+        <v>4342</v>
       </c>
       <c r="BO24">
-        <v>2553</v>
+        <v>4562</v>
       </c>
       <c r="BP24">
-        <v>2791</v>
+        <v>4562</v>
       </c>
       <c r="BQ24">
-        <v>2838</v>
+        <v>4584</v>
       </c>
       <c r="BR24">
-        <v>2839</v>
+        <v>4584</v>
       </c>
       <c r="BS24">
-        <v>2839</v>
+        <v>4793</v>
       </c>
       <c r="BT24">
-        <v>2844</v>
+        <v>4826</v>
       </c>
       <c r="BU24">
-        <v>2844</v>
+        <v>4827</v>
       </c>
       <c r="BV24">
-        <v>2844</v>
+        <v>4982</v>
       </c>
       <c r="BW24">
-        <v>2844</v>
+        <v>5009</v>
       </c>
       <c r="BX24">
-        <v>3217</v>
+        <v>5061</v>
       </c>
       <c r="BY24">
-        <v>3500</v>
+        <v>5216</v>
       </c>
       <c r="BZ24">
-        <v>3725</v>
+        <v>5593</v>
       </c>
       <c r="CA24">
-        <v>3843</v>
+        <v>5719</v>
       </c>
       <c r="CB24">
-        <v>3857</v>
+        <v>5720</v>
       </c>
       <c r="CC24">
-        <v>3857</v>
+        <v>5723</v>
       </c>
       <c r="CD24">
-        <v>3858</v>
+        <v>5723</v>
       </c>
       <c r="CE24">
-        <v>3858</v>
+        <v>5725</v>
       </c>
       <c r="CF24">
-        <v>3859</v>
+        <v>5927</v>
       </c>
       <c r="CG24">
-        <v>3906</v>
+        <v>5933</v>
       </c>
       <c r="CH24">
-        <v>4026</v>
+        <v>5933</v>
       </c>
       <c r="CI24">
-        <v>4026</v>
+        <v>5997</v>
       </c>
       <c r="CJ24">
-        <v>4172</v>
+        <v>5997</v>
       </c>
       <c r="CK24">
-        <v>4730</v>
+        <v>5997</v>
       </c>
       <c r="CL24">
-        <v>4887</v>
+        <v>6206</v>
       </c>
       <c r="CM24">
-        <v>5202</v>
+        <v>6206</v>
       </c>
       <c r="CN24">
-        <v>5653</v>
+        <v>6283</v>
       </c>
       <c r="CO24">
-        <v>5806</v>
+        <v>6285</v>
       </c>
       <c r="CP24">
-        <v>5812</v>
+        <v>6285</v>
       </c>
       <c r="CQ24">
-        <v>5812</v>
+        <v>6302</v>
       </c>
       <c r="CR24">
-        <v>5813</v>
+        <v>6302</v>
       </c>
       <c r="CS24">
-        <v>5813</v>
+        <v>6303</v>
       </c>
       <c r="CT24">
-        <v>5822</v>
+        <v>6303</v>
       </c>
       <c r="CU24">
-        <v>5827</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="25" spans="1:99">
@@ -8167,280 +8167,280 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="AQ25">
-        <v>5</v>
+        <v>601</v>
       </c>
       <c r="AR25">
-        <v>136</v>
+        <v>614</v>
       </c>
       <c r="AS25">
-        <v>136</v>
+        <v>637</v>
       </c>
       <c r="AT25">
-        <v>139</v>
+        <v>641</v>
       </c>
       <c r="AU25">
-        <v>143</v>
+        <v>770</v>
       </c>
       <c r="AV25">
-        <v>507</v>
+        <v>989</v>
       </c>
       <c r="AW25">
-        <v>507</v>
+        <v>1084</v>
       </c>
       <c r="AX25">
-        <v>524</v>
+        <v>1148</v>
       </c>
       <c r="AY25">
-        <v>596</v>
+        <v>1174</v>
       </c>
       <c r="AZ25">
-        <v>612</v>
+        <v>1174</v>
       </c>
       <c r="BA25">
-        <v>749</v>
+        <v>1225</v>
       </c>
       <c r="BB25">
-        <v>965</v>
+        <v>1333</v>
       </c>
       <c r="BC25">
-        <v>1102</v>
+        <v>1397</v>
       </c>
       <c r="BD25">
-        <v>1104</v>
+        <v>1397</v>
       </c>
       <c r="BE25">
-        <v>1181</v>
+        <v>1476</v>
       </c>
       <c r="BF25">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="BG25">
-        <v>1984</v>
+        <v>1773</v>
       </c>
       <c r="BH25">
-        <v>1985</v>
+        <v>1774</v>
       </c>
       <c r="BI25">
-        <v>2110</v>
+        <v>1884</v>
       </c>
       <c r="BJ25">
-        <v>2328</v>
+        <v>1945</v>
       </c>
       <c r="BK25">
-        <v>2689</v>
+        <v>1945</v>
       </c>
       <c r="BL25">
-        <v>2835</v>
+        <v>2162</v>
       </c>
       <c r="BM25">
-        <v>2836</v>
+        <v>2162</v>
       </c>
       <c r="BN25">
-        <v>3075</v>
+        <v>2212</v>
       </c>
       <c r="BO25">
-        <v>3295</v>
+        <v>2553</v>
       </c>
       <c r="BP25">
-        <v>3295</v>
+        <v>2791</v>
       </c>
       <c r="BQ25">
-        <v>3317</v>
+        <v>2838</v>
       </c>
       <c r="BR25">
-        <v>3317</v>
+        <v>2839</v>
       </c>
       <c r="BS25">
-        <v>3526</v>
+        <v>2839</v>
       </c>
       <c r="BT25">
-        <v>3559</v>
+        <v>2844</v>
       </c>
       <c r="BU25">
-        <v>3560</v>
+        <v>2844</v>
       </c>
       <c r="BV25">
-        <v>3715</v>
+        <v>2844</v>
       </c>
       <c r="BW25">
-        <v>3742</v>
+        <v>2844</v>
       </c>
       <c r="BX25">
-        <v>3794</v>
+        <v>3217</v>
       </c>
       <c r="BY25">
-        <v>3949</v>
+        <v>3500</v>
       </c>
       <c r="BZ25">
-        <v>4326</v>
+        <v>3725</v>
       </c>
       <c r="CA25">
-        <v>4452</v>
+        <v>3843</v>
       </c>
       <c r="CB25">
-        <v>4453</v>
+        <v>3857</v>
       </c>
       <c r="CC25">
-        <v>4456</v>
+        <v>3857</v>
       </c>
       <c r="CD25">
-        <v>4456</v>
+        <v>3858</v>
       </c>
       <c r="CE25">
-        <v>4458</v>
+        <v>3858</v>
       </c>
       <c r="CF25">
-        <v>4660</v>
+        <v>3859</v>
       </c>
       <c r="CG25">
-        <v>4666</v>
+        <v>3906</v>
       </c>
       <c r="CH25">
-        <v>4666</v>
+        <v>4026</v>
       </c>
       <c r="CI25">
-        <v>4730</v>
+        <v>4026</v>
       </c>
       <c r="CJ25">
-        <v>4730</v>
+        <v>4172</v>
       </c>
       <c r="CK25">
         <v>4730</v>
       </c>
       <c r="CL25">
-        <v>4939</v>
+        <v>4887</v>
       </c>
       <c r="CM25">
-        <v>4939</v>
+        <v>5202</v>
       </c>
       <c r="CN25">
-        <v>5016</v>
+        <v>5653</v>
       </c>
       <c r="CO25">
-        <v>5018</v>
+        <v>5806</v>
       </c>
       <c r="CP25">
-        <v>5018</v>
+        <v>5812</v>
       </c>
       <c r="CQ25">
-        <v>5035</v>
+        <v>5812</v>
       </c>
       <c r="CR25">
-        <v>5035</v>
+        <v>5813</v>
       </c>
       <c r="CS25">
-        <v>5036</v>
+        <v>5813</v>
       </c>
       <c r="CT25">
-        <v>5036</v>
+        <v>5822</v>
       </c>
       <c r="CU25">
-        <v>5043</v>
+        <v>5827</v>
       </c>
     </row>
     <row r="26" spans="1:99">
